--- a/complexiteGrandsNombres.xlsx
+++ b/complexiteGrandsNombres.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Jeu de test 1</t>
+  </si>
+  <si>
+    <t>n.Vn</t>
+  </si>
+  <si>
+    <t>Jeu de test 2</t>
   </si>
 </sst>
 </file>
@@ -124,10 +130,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$10</c:f>
+              <c:f>Feuil1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -151,16 +157,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$10</c:f>
+              <c:f>Feuil1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>37073</c:v>
                 </c:pt>
@@ -184,6 +196,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5140668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7565071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9032212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -201,10 +219,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$10</c:f>
+              <c:f>Feuil1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -228,16 +246,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$10</c:f>
+              <c:f>Feuil1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>62941</c:v>
                 </c:pt>
@@ -261,6 +285,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4402408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5991922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6842482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,50 +301,25 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>n.logn</c:v>
+            <c:strRef>
+              <c:f>Feuil1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n.logn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$10</c:f>
+              <c:f>Feuil1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1660964</c:v>
                 </c:pt>
@@ -338,6 +343,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15687712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17801610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19931568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,11 +365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108315008"/>
-        <c:axId val="108316544"/>
+        <c:axId val="222941184"/>
+        <c:axId val="222942720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108315008"/>
+        <c:axId val="222941184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108316544"/>
+        <c:crossAx val="222942720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -376,7 +387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108316544"/>
+        <c:axId val="222942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +398,374 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108315008"/>
+        <c:crossAx val="222941184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="6350"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(n) Balayage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$19:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(n) TouteLesPaires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>596211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>969612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2614426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2998031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n.logn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1660964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3521928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5458381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7443856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9465784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11516762</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13591897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15687712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17801610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19931568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80123392"/>
+        <c:axId val="80124928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80123392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80124928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80124928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80123392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -416,16 +794,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -439,6 +817,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -734,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +1182,9 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -789,6 +1202,10 @@
       <c r="E3" s="3">
         <v>37073</v>
       </c>
+      <c r="F3">
+        <f>(SQRT(A3)*A3)</f>
+        <v>31622776.601683795</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -806,7 +1223,10 @@
       <c r="E4" s="3">
         <v>202617</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="0">(SQRT(A4)*A4)</f>
+        <v>89442719.09999159</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -824,6 +1244,10 @@
       <c r="E5" s="3">
         <v>488664</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>164316767.25154984</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -841,6 +1265,10 @@
       <c r="E6" s="2">
         <v>1013365</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>252982212.81347036</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -858,6 +1286,10 @@
       <c r="E7" s="2">
         <v>1804657</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>353553390.59327376</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -875,6 +1307,10 @@
       <c r="E8" s="2">
         <v>2974906</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>464758001.54489005</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -892,6 +1328,10 @@
       <c r="E9" s="2">
         <v>3612029</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>585662018.5738529</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -909,20 +1349,52 @@
       <c r="E10" s="2">
         <v>5140668</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>715541752.79993272</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2">
+        <v>900000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17801610</v>
+      </c>
+      <c r="C11" s="2">
+        <v>810000000000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5991922</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7565071</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>853814968.24546242</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19931568</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6842482</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9032212</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1000000000</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -931,128 +1403,263 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1660964</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35532</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <f>(SQRT(A19)*A19)</f>
+        <v>31622776.601683795</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3521928</v>
+      </c>
+      <c r="C20" s="3">
+        <v>40000000000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>135556</v>
+      </c>
+      <c r="E20" s="3">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F28" si="1">(SQRT(A20)*A20)</f>
+        <v>89442719.09999159</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>300000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5458381</v>
+      </c>
+      <c r="C21" s="3">
+        <v>90000000000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>378218</v>
+      </c>
+      <c r="E21" s="3">
+        <v>196</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>164316767.25154984</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>400000</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7443856</v>
+      </c>
+      <c r="C22" s="2">
+        <v>160000000000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>596211</v>
+      </c>
+      <c r="E22" s="2">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>252982212.81347036</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>500000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9465784</v>
+      </c>
+      <c r="C23" s="2">
+        <v>250000000000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>969612</v>
+      </c>
+      <c r="E23" s="2">
+        <v>157</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>353553390.59327376</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>600000</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11516762</v>
+      </c>
+      <c r="C24" s="2">
+        <v>360000000000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1700794</v>
+      </c>
+      <c r="E24" s="2">
+        <v>348</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>464758001.54489005</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>700000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>13591897</v>
+      </c>
+      <c r="C25" s="2">
+        <v>490000000000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2614426</v>
+      </c>
+      <c r="E25" s="2">
+        <v>225</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>585662018.5738529</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>800000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15687712</v>
+      </c>
+      <c r="C26" s="2">
+        <v>640000000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2998031</v>
+      </c>
+      <c r="E26" s="2">
+        <v>252</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>715541752.79993272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>900000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17801610</v>
+      </c>
+      <c r="C27" s="2">
+        <v>810000000000</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>853814968.24546242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B28" s="2">
+        <v>19931568</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1065,8 +1672,9 @@
       <c r="D33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
